--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/31_Erzurum_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/31_Erzurum_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C169E4-DD7E-48E6-8185-0AC00D6A5178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{823D8AA6-61C6-4D2D-810E-DA809A6687DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{7BEE71F4-FB96-49B9-848B-5B083B8BE2D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{CBFE5815-E105-4445-A1C0-46A5258FA67C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -951,13 +951,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D2A9DD93-0794-4A79-ACDB-A4917B5B3C27}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{25A668A4-329D-4DEA-B501-EC2AD8C98C29}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D854BD37-7E4C-42CF-ACB2-CD5389790DFE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{DDD740D9-7185-4FE4-BB71-28DA5500EE70}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4E6AF4C5-04D4-46CC-BF52-7600073CE6AC}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{4EC11A7E-9703-4533-A46A-477ED426CAE0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BDB3A92D-0199-445D-B1EC-3560D6D766CF}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{25AB50C2-FD1F-4FF1-9532-F39BCDF77ADC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{64395C91-85DA-45F3-8C7C-22DD62F99EF6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{946E30DC-C8AF-4D62-91C0-984C7F4B9488}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F07A3945-7E2F-4488-9235-9DEB979E4C6D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{51F3ACB6-9B8C-4A3A-BB66-7B944871653D}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2123516F-C289-4693-B25C-4B69A4A04D10}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{40C97E2A-7838-412D-BAA9-6702266ECBE4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19CD531-EF2E-4055-B56A-C5FB0066AC68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCCCD02-ED37-4E01-BA18-AC4440080AC1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2614,18 +2614,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC9DCBE7-EFA3-411C-916C-FD851492D12D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A2C0C64-768A-4EFC-99A1-4A000429675E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8EA33209-5408-4BC0-8D79-95948D70FB1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92A1764B-DFDD-4360-859B-B6AA02FDB22B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FD1767E-FA6D-402B-BE21-33C339C0C8DC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FA3BF3F3-82FC-4186-A8CB-AB1686F0CECC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97281648-EF15-4C8F-AEAD-07127FF12230}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D013F9D4-906A-4A65-8943-349976D674F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6588B8D3-0E6A-46A1-8759-FC359384E618}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DD4A22B9-4F73-48A8-BBA0-AF6E19B62C1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB3269B5-3371-4E74-A805-2E7C225D37A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7C63C64-2BB9-4ADB-80D6-83B1C3BDF7F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F530DCC-44E2-4049-851B-2F649F0466A4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C44C692C-0BFA-4AD6-A04D-D4F2171A21D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{853585DB-0876-4709-9D49-32D04E2888F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E5F1665B-C3D4-4EC7-BEFF-B74D8B918AF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7AE1C9F-8877-439F-8609-69D75462D4E0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D251104-538A-48D2-AB56-AF58F6F916E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CC895BE-177C-48CB-BE14-DD2AB8A15D22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C5C47B9-B055-4B4A-BB92-14593EB76E3E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5609D55-241A-4A83-9D76-7FDD91EDA5CB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1872572E-262F-41B6-84AA-15C9BC5B161A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06A239AA-7467-4975-B0E1-D674CBC76983}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41223E0D-BDD1-442D-875F-087F3CFA2244}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2638,7 +2638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9948F6-CC26-4A18-AF68-E31EB1B29692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD226F62-8D3C-45E8-BBDB-583E2B8CD9B7}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3879,18 +3879,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F0C3727-A020-44E4-9E64-7A1DF78554F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7200BBB-C92A-46BE-97D3-B0C9469365B3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{840476D2-2E0F-4E13-8D1B-9D2AB2A9C91E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A90DCE7-ED5D-463E-A9EE-226C4ACDE954}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51F1F683-0E22-4BEA-8234-033EFA770802}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{860FFDD0-D73D-406D-B9AA-B406D80C803C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEDD60E2-DE81-4E47-8062-B1BF87777149}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B796B7D1-0314-4871-A218-35997C112C04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F2D7231-7FA0-42A8-9176-4E0258F3A28C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D74A731D-1A0C-4C0D-87C2-20A1102728F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8F1A9D9-006E-4907-BB4B-FFCFFF65ECCE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60DD61E5-047F-401A-895B-DDAE18F676A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7772270A-DC54-4FA4-A6F3-BCFD6B42A5EC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A368161A-2706-46EA-B87F-ADAA74FE3DBE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B43F9BF9-C867-47C7-BA6A-98EFF9A90047}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5775B73F-1068-4068-A216-F6394C7FBCAF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3951C58A-29D8-4403-9E68-F2EC9CAC3A0A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{93280C2F-4676-4F13-9269-DA5217BFE865}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9190C2EA-5C8A-46BB-A442-371E5F0307F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCE993CC-F6C3-4070-AEDD-476FC930AC1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E7EE0BC-C5E5-4D2D-A5DF-E12381D45AF8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F16E7808-4D03-48F7-9B5C-C6345E6F24C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBF42C9A-2B27-4026-8FF6-7FE93A091087}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2AA75E39-947F-4DAE-8231-AB78412B7DD8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3903,7 +3903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74346A2E-F701-4DC8-9E2F-C3E9804EC309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8D567E-8FDF-4608-A7E7-454A12EE62C2}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5136,18 +5136,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19989E2B-400D-48E3-BFF7-FE7994966527}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AA5B76D-957A-490C-9E59-85466AFB39D0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{841A0D5D-50F0-4BA8-8EAF-8CFC83241CFD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1720C76B-1E32-4D8D-84B0-B024B16512E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{727756DA-E909-4923-9AC6-58AB66C9604D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B972DE89-18B8-4696-978B-EFC0523F498E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBB811A5-95BC-4657-A398-3205EA952CA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08FA2741-ACCE-43FB-89E3-A87A7776F5FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88D6E2BB-B6E8-43E0-ABD2-7CBAD17D90C5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{01A44C93-42D5-4F18-AEDF-EA23D7AA05C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6AAF0C4-BA1A-45C1-829B-FFD3E9B04901}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08222BED-06E4-4192-AE98-6995F03BEFFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92EAD9F0-2756-4606-81A8-9E348D02BDE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DBF7F41-DC87-451B-85F9-DD541DB204F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F35B4BD8-21A8-44DF-A719-4FAB881039BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{236FF178-8DB3-4D91-AEEA-246874DFE549}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32A54B95-3EB8-4703-9DE9-37EB6B985619}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F0BD1EE6-BA29-49D1-9852-A6F6FB89A7CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{471CF8C5-98C8-4997-AB85-DD4F5B6CF716}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9E9F506-B89C-464E-9149-4A4A0942A726}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0FE6EE31-FD56-435E-802E-04C4568BB7C2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1EF9F92C-07F4-4B27-8D85-07CC0F791668}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80CB4C35-7865-4A24-8174-59E5199269C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A81F4E26-C0CD-46A1-9395-4549249E9FE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5160,7 +5160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B24373-CF62-47DF-B1AA-0568F87B8B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF846D2-C651-455A-ABA6-74135EF00050}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6372,18 +6372,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CF42189-1247-4369-A18A-67FDE87B8777}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A789C43D-1E7D-471B-9112-7DE984CB2C64}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9DF41486-4D77-4E2D-895E-C81D3FF1AE8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA2BB48C-7643-4EEC-B2D4-BA1B877FC569}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EED717FF-9EBF-4286-AAAB-A7916EF59E52}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B5DA368A-4718-48F5-9DE9-5AFDC95B61F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{967F9E5C-A497-414B-AD4E-69B9DA7F5A8E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39CA7F85-25AD-4186-B8B1-C79B322040DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4FED9FB2-0805-4937-A558-EB151C5A7B43}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FD2BEFA0-7D82-4272-BE64-EED265104554}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DE824F6-9494-4462-BFE1-7DE241DD4249}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7651A242-AD52-4B8F-87FD-CCC3D37B63C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B3A9F0A-31FC-4327-92E3-8959E18A0EEA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0345EBB-A38B-489B-849B-146646399741}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1860C019-BD8F-4C3D-AE78-5124F88D2D29}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3EA29E14-5A12-464E-88A5-B901E594925A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F4B118F-733D-4537-87D2-D8634466159A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{86A171C8-3B1F-4964-A138-B6E35ED1C953}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72FCCD60-AD68-4F91-AE83-86259247EFE4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0E9E29A-9CEE-4465-96E6-D73FCC8ADD35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DFDE129-4DC5-4993-B710-C0AFF273FE1B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EE529753-5ACC-4700-BEAA-430D2729B783}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ABB2F140-C6AA-43C4-89AB-669FBDC3367B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D255C024-EC80-4E87-ADB0-977E464569D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6396,7 +6396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424BD51-D9B2-49D4-A092-071276474A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC0D2B-14EA-4CAE-8181-21020DAC4865}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7681,18 +7681,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{068FA756-1BFA-419A-82DE-0DE18FF8497E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF727458-D8A8-4AFF-92C3-BDC4461DA663}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C685B4B5-8D60-4EFF-9E03-498C5B16E8F7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BDC0FEA-506A-469A-9CF6-2236F79CC0F1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8B056C6-4D19-4CD5-BD7E-B9608D8EE0B7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C1F8E8BA-5023-48F5-87CD-1CF1D5C13A4E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C3415EA-E045-4316-847C-EB60E1CA351E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C47ED9A-A43B-497A-889F-CCFB74D8A239}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92E42FB7-8FCF-4FB1-9596-E95C58EC6FDC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BF797072-152C-41E8-B2ED-FB463385DC68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE82900C-61B9-4CB4-9B5D-2B2A31950911}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE45E03F-FBCB-488C-9ABC-A156EE9FA1E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21279BD7-D01B-4112-A2FE-A0CA0A9569EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{222A4D2D-DC11-4DA4-8A60-6ED336D19E32}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E53C6EFE-9AEC-4BEE-B21C-2C39517323AF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CAFC00F8-0F8A-4F68-AC7B-76D67688B7E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9C372B5-E4B9-453D-8445-AE0989EBCBA5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{21457F86-5028-4747-AA30-72CDF0A5D214}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4E8E624-1818-43DC-9B9A-4F77CA6C4D1D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73C8597E-2EF7-4BCC-A7F2-F4B5532C9A8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D102C70-6E6E-4C9A-B1DA-B38EF54843AD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{57EB9BAE-0008-4F84-A45B-388FC228CB06}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D983A212-FF7A-48E7-8E93-E39B50FE7FE0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8546032-675C-4430-BD65-007690EC3B92}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7705,7 +7705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF4DF81-F018-4977-A910-E8E2DF83AA83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D01E47-0E94-43C7-8D8D-C3B7463CD024}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8986,18 +8986,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC25906A-5E06-4E1A-8847-A776588683BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCE09ED4-E99C-4122-A6C8-C3D2EB1B03E9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D445B8C5-84F3-470F-91D8-7545E6A564D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01BBB28A-A418-44FE-BFF0-D9EA47CCDE3A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD66BE39-3C86-499A-A45E-A78446F34334}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5A345FBD-B7EB-43E9-92B7-1A091DAF13C4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{359A1EBD-EC42-438B-B4B5-CD72FB30125E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FC9D171-5C02-4C02-B1BE-01BCEB0CF78A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78F974CD-21EA-421F-B0AB-5F37C8909A35}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DE23027F-AA08-4922-A499-C8EEE917489F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB6616E8-B26E-42CA-8C0C-3C363BC62C09}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFBEC4E5-8899-4238-8FB9-598C84873048}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{381A426D-6C7E-4779-8032-048FC5B4EDBD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56F91602-6D89-483D-AA01-12F16A87451B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9702E08F-9C56-4DE6-A1C8-AAB979B45E86}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAA10552-BF2A-4290-BABA-2B11FB6D0DB9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D1FC081-CA7C-43C3-8907-027FA4EB9817}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A4F35893-ECC2-44D4-8185-4729E3B91CFC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F9FE3B5-A09E-417E-8DAD-0DCCF3C6142A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F1DFAAC-444F-4A06-AEC4-4D9CD19C2973}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E50DCF09-0E58-4E5B-B9DD-6ED919ED4E56}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5AD58F87-F21C-498B-A9E9-713381FEBDB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6A32B7F-6DAD-4189-B642-8246F1BB5504}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F257E3A-595A-4AA5-8A99-E172042E2D1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9010,7 +9010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD1138-AAD9-45B6-956E-DE757240FFED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A02B56E-D203-4464-9EBC-EE557FBFD332}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10291,18 +10291,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F2FD413-5D8D-4119-9C3A-CF7948C80C59}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96FFB1A0-600D-456A-BB96-5FCA81238B48}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{81803572-1016-42D3-9D70-DC1CDD3A302C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFB1E712-E97A-4CED-8E8B-68E00FA733D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D6AF170-994E-452E-B45B-5F09C0403B18}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D584E02E-954E-4A58-A154-60B569BB9794}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A76AB7D6-A249-4D5D-A97A-EFB2471934EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C43FE5A8-1FBA-48FE-B263-ECF18E3A60BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B59524F-CE0F-47B6-937A-1E5D748A1BE3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0483FA10-CB4C-41FF-9AC3-2BB06DECD8FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A9AE9B8-1805-480D-A4BD-900EF52591EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F12A4D2D-41A1-41B0-B608-371C8CD160D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33AF707B-B33D-4CB7-ADE7-C8404F61267F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{437772EA-9B6F-48B7-977D-14DF1937BEEB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17709418-32CA-4829-970A-ADC7BA654FC2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6CA8288C-B5ED-4D7E-AB3D-3C9B72686EA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC6E8012-08A9-4FA8-A618-5A68422ADBBE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{86C07579-6846-4EFB-96FD-BADD94CF7789}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AB9C9AE-AE62-4117-A71F-1CD972ED871D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38FE9EAF-04A0-47B4-89FB-D12AA87DEDAE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF151086-94FB-4F10-9AB6-DC95DF5C0ECF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{74C69169-997D-466A-A06E-6A594A256867}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E60953D9-89A9-4BD7-8093-18D1B71A2EC5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E92C90AF-3ED2-416C-817E-CD37FDEB2F73}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10315,7 +10315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F57E15-FEA1-49F8-A064-DA17534EF7E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859F6877-368E-4279-89F4-4A1A9ECED8FD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11596,18 +11596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46C3B520-6145-4868-BA28-BE0ADC63E7F0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{012733F5-F672-4D7F-8BD2-8D4D2EC51481}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1649F4C-AF1D-4A4D-9CDB-D3A4E4B43051}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A8B9D1F-D391-4241-8D36-0D1BE9DA1AB1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21D4D075-A6BB-4FCF-800E-53AAFB204194}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B066E547-9137-4356-8CFD-14392E61B410}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23EFABEF-DD44-438E-BAFB-4C05A81C4028}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96865688-A2EA-44FA-AE94-472B148EBCC6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11C2B262-8ED3-4026-8DA9-5A7D790F41A8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E0A41E46-0A86-409A-AEA6-B573552696C6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB0C7CB0-AF93-4253-A2EC-461C3063C5A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13C7432D-4571-4A4B-9BD7-8E9DE3AB86B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EE3F42D-FDCD-448E-BB2D-A685E6A43CB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8877F170-2650-4B8A-965D-8BE6F2451C15}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F5B6CAB0-112A-422C-B611-AF9CA511771C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F82547F-87D5-4175-99FE-6591D45ABCD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D0A53C7-563A-4987-A9CD-1EB4776674DE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7036899C-6879-4E64-A2C0-26D8BFB58BA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75E45585-1BE1-4B3F-9E36-2014B6B63B2A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{410CADC0-59AD-4D5B-82DA-A5C667202F30}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F45BACED-C55B-4230-979D-94DFBB4C3098}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8780CD2F-AB45-45E9-A6B0-6EB0BF07ABD2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFDB7883-0F72-4924-A668-7050B9A58DF9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C145801-959A-48B2-B654-B8B130EFF209}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11620,7 +11620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A81B044-8902-4D84-A8B3-109307C06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94BCF67-0EC9-41CD-9B99-C5C405F0BC06}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12889,18 +12889,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1154E850-55CB-45B7-8404-B6EF2262B3F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAC01058-2D9F-4D17-8959-77FDD7596AD6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7B37D58-AAF3-455A-B4E5-4D4D47600BE2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{647E42D5-11A0-41AE-92AF-BB760A758373}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74C0D482-AC5F-4CA2-B222-8B50F9D2D5B5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FAB6E89E-73FE-4340-BA98-2944CCB35F32}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B6EC4FB-3D64-402C-9112-AC020D8DD671}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35FD2432-9C85-4281-9ACF-F187A69A337E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92BD5C81-43CA-456A-9432-26FC898664DE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D13C3BFC-2DBE-4F35-A4B1-1102B4D48F2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27EF8FB5-CF50-458C-A2A0-B438916F878F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F383E96B-9AFA-43C8-AAD0-6BC29B24E226}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3B98D55-4F10-4481-A945-F4B018EDEBE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30F39DCA-9BB5-4B2E-9F79-6D520C2888E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{78AEF4AB-68B3-4C7A-9EAD-6E6E2617C96C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68E01047-A100-422E-A12C-62919712A3E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2787263B-5472-484B-AE6D-66590550C2DC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{223172E5-D5B4-4471-93F2-319A0E540F1D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12A6DCB9-A2B6-4ADC-AC80-4F94841F8AC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8FE188D-AFC7-462A-B7D4-4226EDEEF91D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CD60432-E5B7-45DD-B4F7-9E59942443C0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EE2285F1-E532-4129-9329-289AF6693BE5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9A7D729-AA91-4A36-BEB6-08215C7C7D0C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{553E43A1-4282-4CBB-9A69-8231E139A268}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12913,7 +12913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4512F505-A7F2-4FBE-B610-2C770803AF83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61966DD5-6550-482F-B4B4-062ED972662D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14154,18 +14154,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A644712E-859C-431F-86F8-611618468D4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E15D1C31-78C3-4443-9C8B-0AE717DEBAC1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF5497E5-E1C4-4357-884A-C45AD69017DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6E3D516-791A-4DBE-86C6-5B4C94E5A1D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7FD95B2-6D1B-4888-8881-E81C3CE1C2AC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BDC7DCB2-FA3C-4C33-A0D5-80566BD23B02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B30BD2A7-613C-461E-8B45-9E020B771A2B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2F559EF-F136-41FA-99C7-39CF03309301}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1778BC5-8999-4794-BC47-BC66CC4781C3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{13B37FFE-48E0-405D-A97F-F4501A985A9D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4656317-53FD-4EB8-AEA0-35DFD9B28B97}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD53E53F-9EEB-436F-BBDE-27577726AA09}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE64420F-3230-40C8-A807-D0E5BC05FAF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9F5AD48-9FF1-4AB9-A346-2E4DDE202E63}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69622736-1C44-47BF-B883-4026397B7B1D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3DAF1CE2-6325-43C5-9E1F-D251AC427D58}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82FF239C-0856-41B4-B72B-C82E1778DBB8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA0B0983-D224-47E9-82B9-7747C18A6BC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01FE9433-04BE-4680-99FB-AD326D6C83AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54A6BD61-8A60-4E6C-AACB-A2704F0B9046}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1E0A341-BFCD-479A-8999-0C6A824B9EB3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3389075A-B5FC-46DE-94A0-3F6D752FA276}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3FEC262-1A45-4B8D-AD92-7DAE8EB10EC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{455861E4-DC81-49CE-BA2C-A90C67675B0D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14178,7 +14178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517DE9D1-4B7D-497B-8ED7-65035D478B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA78C38-ACFE-4555-854F-F1D2DACD59F8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15419,18 +15419,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F41DF254-AFA2-4355-B3AE-8B6D84C3E691}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5CC896F-E8C4-4C9B-B4D6-C62DFE77141D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCB52409-4F35-4988-8972-281DD2B1676C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5EAB6961-01E7-4583-B500-0E3E212D15A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9750B541-03C1-4141-B407-BC17AC9FF72B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{496759EF-E71A-411E-85BD-AD61776D4190}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17BFC0C2-5CB3-43C6-BD6D-2E50183BB0D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{739EE365-A9AA-4F01-953C-EC730862AA4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D76071D-A8E6-433F-A848-DB0289F0F362}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D1735140-C2D8-4C40-98A7-AA7E59994A9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5119FEF-3C6F-4127-8594-AB26F97754D4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A93CE3A1-A84A-439A-AC52-BAFA0DE2676D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EF03C10-EC5C-45B2-A807-7620929B4523}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D813D48-7EF2-428D-888E-0D65BA7D77E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55CFA868-9436-4AA3-B8A0-0BB8B30D4E00}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8016341-45AA-4FA9-B2C3-97D351591CE0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71128CF2-013A-4FB0-A4B0-3C385F58FBE2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{502B49BA-230A-460F-A6F8-79A8B3F2F409}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A381BEC-9682-47B5-95E6-EDDBDADD2D6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7095E14C-7000-4CC3-A9BD-D6E48E840797}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1A26910-604F-4F52-85E6-24889BAC4C35}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3BD5C475-4EFD-45B8-B6FD-6374B45A98BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F3A0023-646F-42A0-977E-7015CB9383F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D50DBD78-CE5E-4035-B7B4-BA9396B919AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15443,7 +15443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6494FAE1-D40A-4145-99D0-6B4E7190138C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544B1433-2011-44EF-9DF0-36334B41E4CE}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16684,18 +16684,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F8ED6B8-42FE-4A9B-85CD-937D02A6EF22}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{797B06F5-D9C6-429D-9595-90A69D1619F4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CCA91576-C2BB-4288-8204-EB68B5B2AFD5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04645E40-5F7C-4B90-8D9D-3E48ECEEA4F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4567F392-06F1-4E32-B680-8F20A86BC7DF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CF4E20C6-AA96-4EFD-B1CE-0555B473001D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CD972CE-D455-4B87-93F0-FEF98EC50177}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B848DBF3-4DD6-40A5-8F5F-EDF5E94B76A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{715065B6-5ED1-4055-AE76-96099639F2E5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EE602DFA-0496-4750-A0B3-81D0BFD99AA7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A915D9D-A641-4790-94BD-8EA4D600650C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8DF5EC5E-67C1-4144-9C0B-0080A84B9E5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{607CD629-5A56-4A82-BE22-FA312097EB23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CBE61F9-23CD-4689-AC08-F0E5BA6E8A33}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A6FCA47-0D63-42C0-8321-985173C2283B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F7E97A2-4B14-400F-B6BA-83850F547E32}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{368DAA5C-01F1-4548-AA61-3767822E06FA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5EA9D184-B510-4FF2-9630-CE15EA8853FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE4B0792-871C-471E-9EC6-CC35D9AAE528}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{700994BF-7157-4447-BB2B-F38102E6B5D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6014C9C2-59C3-4083-B9B5-C3D8781CA9AB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BE46AEAD-2AF8-47DB-962F-A07853B33844}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0085C25-2260-46E3-87FF-632F8CBDF369}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A3926B0-4A15-4DB3-A90C-3181747F260C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
